--- a/Structure_ClusterAssignMLGs.xlsx
+++ b/Structure_ClusterAssignMLGs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wslch365-my.sharepoint.com/personal/lia_baumann_wsl_ch/Documents/R/truffles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="8_{BE708B57-0892-3643-8382-6397C0CF8B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2EEB02C3-EB12-49CD-B099-046CF540ACFB}"/>
+  <xr:revisionPtr revIDLastSave="76" documentId="8_{BE708B57-0892-3643-8382-6397C0CF8B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A24BCB79-889D-47BF-A7E0-89D39F1B76C9}"/>
   <bookViews>
-    <workbookView xWindow="56265" yWindow="4380" windowWidth="21465" windowHeight="12705" activeTab="1" xr2:uid="{8B2E2298-6B14-B241-BB17-062C1F5FB235}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8B2E2298-6B14-B241-BB17-062C1F5FB235}"/>
   </bookViews>
   <sheets>
     <sheet name="ClumppIndFileMLGref" sheetId="1" r:id="rId1"/>
@@ -3808,9 +3808,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CECD6D-642C-7749-BC0C-99E9BDDE3D35}">
   <dimension ref="A1:AB468"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J1" activeCellId="6" sqref="M1:M1048576 E1:E1048576 F1:F1048576 G1:G1048576 H1:H1048576 I1:I1048576 J1:J1048576"/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M468"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -44078,7 +44078,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF226374-6849-45DA-821D-62BB3A671EA6}">
   <dimension ref="A1:G468"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>

--- a/Structure_ClusterAssignMLGs.xlsx
+++ b/Structure_ClusterAssignMLGs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wslch365-my.sharepoint.com/personal/lia_baumann_wsl_ch/Documents/R/truffles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{BE708B57-0892-3643-8382-6397C0CF8B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A24BCB79-889D-47BF-A7E0-89D39F1B76C9}"/>
+  <xr:revisionPtr revIDLastSave="85" documentId="8_{BE708B57-0892-3643-8382-6397C0CF8B4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{81AC4ABD-1CCE-4053-A0D9-59F3F1C344A7}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{8B2E2298-6B14-B241-BB17-062C1F5FB235}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="3" xr2:uid="{8B2E2298-6B14-B241-BB17-062C1F5FB235}"/>
   </bookViews>
   <sheets>
     <sheet name="ClumppIndFileMLGref" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3753" uniqueCount="1090">
   <si>
     <t>IndNb</t>
   </si>
@@ -3306,13 +3306,16 @@
   </si>
   <si>
     <t>Lat</t>
+  </si>
+  <si>
+    <t>cluster 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3331,6 +3334,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3378,7 +3389,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
@@ -3387,6 +3398,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3445,13 +3457,15 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7E299ECA-D669-4D2B-A8B2-BD5B9F3875D3}" name="Table1" displayName="Table1" ref="A1:AB468" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:AB468" xr:uid="{7E299ECA-D669-4D2B-A8B2-BD5B9F3875D3}"/>
+  <autoFilter ref="A1:AB468" xr:uid="{7E299ECA-D669-4D2B-A8B2-BD5B9F3875D3}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="BOB"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AB468">
     <sortCondition ref="L1:L468"/>
   </sortState>
@@ -3808,9 +3822,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CECD6D-642C-7749-BC0C-99E9BDDE3D35}">
   <dimension ref="A1:AB468"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2:M468"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L135" sqref="L135:M135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -3904,7 +3918,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3990,7 +4004,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4076,7 +4090,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A4">
         <v>3</v>
       </c>
@@ -4162,7 +4176,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4248,7 +4262,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4334,7 +4348,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4420,7 +4434,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4506,7 +4520,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4592,7 +4606,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4678,7 +4692,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4764,7 +4778,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4850,7 +4864,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4936,7 +4950,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15373,8 +15387,8 @@
       <c r="J135">
         <v>3.1E-2</v>
       </c>
-      <c r="K135" s="1" t="s">
-        <v>51</v>
+      <c r="K135" s="8" t="s">
+        <v>1089</v>
       </c>
       <c r="L135" t="s">
         <v>345</v>
@@ -15772,7 +15786,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="140" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A140">
         <v>139</v>
       </c>
@@ -15858,7 +15872,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="141" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A141">
         <v>145</v>
       </c>
@@ -15944,7 +15958,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="142" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A142">
         <v>147</v>
       </c>
@@ -16030,7 +16044,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A143">
         <v>148</v>
       </c>
@@ -16116,7 +16130,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="144" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A144">
         <v>149</v>
       </c>
@@ -16202,7 +16216,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="145" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A145">
         <v>150</v>
       </c>
@@ -16288,7 +16302,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="146" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A146">
         <v>151</v>
       </c>
@@ -16374,7 +16388,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="147" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A147">
         <v>152</v>
       </c>
@@ -16460,7 +16474,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="148" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A148">
         <v>140</v>
       </c>
@@ -16546,7 +16560,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="149" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A149">
         <v>153</v>
       </c>
@@ -16632,7 +16646,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="150" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A150">
         <v>154</v>
       </c>
@@ -16718,7 +16732,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="151" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A151">
         <v>155</v>
       </c>
@@ -16804,7 +16818,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="152" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A152">
         <v>141</v>
       </c>
@@ -16890,7 +16904,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="153" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A153">
         <v>156</v>
       </c>
@@ -16976,7 +16990,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="154" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A154">
         <v>157</v>
       </c>
@@ -17062,7 +17076,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="155" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A155">
         <v>158</v>
       </c>
@@ -17148,7 +17162,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="156" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A156">
         <v>159</v>
       </c>
@@ -17234,7 +17248,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="157" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A157">
         <v>160</v>
       </c>
@@ -17320,7 +17334,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="158" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A158">
         <v>161</v>
       </c>
@@ -17406,7 +17420,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="159" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A159">
         <v>162</v>
       </c>
@@ -17492,7 +17506,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="160" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A160">
         <v>163</v>
       </c>
@@ -17578,7 +17592,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="161" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A161">
         <v>164</v>
       </c>
@@ -17664,7 +17678,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="162" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A162">
         <v>142</v>
       </c>
@@ -17750,7 +17764,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="163" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A163">
         <v>165</v>
       </c>
@@ -17836,7 +17850,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="164" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A164">
         <v>143</v>
       </c>
@@ -17922,7 +17936,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="165" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A165">
         <v>144</v>
       </c>
@@ -18008,7 +18022,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="166" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A166">
         <v>146</v>
       </c>
@@ -18094,7 +18108,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="167" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A167">
         <v>166</v>
       </c>
@@ -18180,7 +18194,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="168" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A168">
         <v>167</v>
       </c>
@@ -18266,7 +18280,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="169" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A169">
         <v>168</v>
       </c>
@@ -18352,7 +18366,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="170" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A170">
         <v>169</v>
       </c>
@@ -18438,7 +18452,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="171" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A171">
         <v>170</v>
       </c>
@@ -18524,7 +18538,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="172" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A172">
         <v>171</v>
       </c>
@@ -18610,7 +18624,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="173" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A173">
         <v>172</v>
       </c>
@@ -18696,7 +18710,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="174" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A174">
         <v>173</v>
       </c>
@@ -18782,7 +18796,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="175" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A175">
         <v>174</v>
       </c>
@@ -18868,7 +18882,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="176" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A176">
         <v>175</v>
       </c>
@@ -18954,7 +18968,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="177" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A177">
         <v>176</v>
       </c>
@@ -19040,7 +19054,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="178" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A178">
         <v>177</v>
       </c>
@@ -19126,7 +19140,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="179" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A179">
         <v>178</v>
       </c>
@@ -19212,7 +19226,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="180" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A180">
         <v>181</v>
       </c>
@@ -19298,7 +19312,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="181" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A181">
         <v>196</v>
       </c>
@@ -19384,7 +19398,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="182" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A182">
         <v>182</v>
       </c>
@@ -19470,7 +19484,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="183" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A183">
         <v>184</v>
       </c>
@@ -19556,7 +19570,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="184" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A184">
         <v>179</v>
       </c>
@@ -19642,7 +19656,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="185" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A185">
         <v>180</v>
       </c>
@@ -19728,7 +19742,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="186" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A186">
         <v>185</v>
       </c>
@@ -19814,7 +19828,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="187" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A187">
         <v>186</v>
       </c>
@@ -19900,7 +19914,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="188" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A188">
         <v>183</v>
       </c>
@@ -19986,7 +20000,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="189" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A189">
         <v>187</v>
       </c>
@@ -20072,7 +20086,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="190" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A190">
         <v>188</v>
       </c>
@@ -20158,7 +20172,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="191" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A191">
         <v>189</v>
       </c>
@@ -20244,7 +20258,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="192" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A192">
         <v>190</v>
       </c>
@@ -20330,7 +20344,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="193" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A193">
         <v>191</v>
       </c>
@@ -20416,7 +20430,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="194" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A194">
         <v>192</v>
       </c>
@@ -20502,7 +20516,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="195" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A195">
         <v>193</v>
       </c>
@@ -20588,7 +20602,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="196" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A196">
         <v>194</v>
       </c>
@@ -20674,7 +20688,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="197" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A197">
         <v>195</v>
       </c>
@@ -20760,7 +20774,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="198" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A198">
         <v>197</v>
       </c>
@@ -20846,7 +20860,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="199" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A199">
         <v>198</v>
       </c>
@@ -20932,7 +20946,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="200" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A200">
         <v>202</v>
       </c>
@@ -21018,7 +21032,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="201" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A201">
         <v>199</v>
       </c>
@@ -21104,7 +21118,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="202" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A202">
         <v>200</v>
       </c>
@@ -21190,7 +21204,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="203" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A203">
         <v>201</v>
       </c>
@@ -21276,7 +21290,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="204" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A204">
         <v>203</v>
       </c>
@@ -21362,7 +21376,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="205" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A205">
         <v>207</v>
       </c>
@@ -21448,7 +21462,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="206" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A206">
         <v>208</v>
       </c>
@@ -21534,7 +21548,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="207" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A207">
         <v>209</v>
       </c>
@@ -21620,7 +21634,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="208" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A208">
         <v>204</v>
       </c>
@@ -21706,7 +21720,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="209" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A209">
         <v>205</v>
       </c>
@@ -21792,7 +21806,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="210" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A210">
         <v>206</v>
       </c>
@@ -21878,7 +21892,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="211" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A211">
         <v>210</v>
       </c>
@@ -21964,7 +21978,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="212" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A212">
         <v>211</v>
       </c>
@@ -22050,7 +22064,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="213" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A213">
         <v>220</v>
       </c>
@@ -22136,7 +22150,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="214" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A214">
         <v>212</v>
       </c>
@@ -22222,7 +22236,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="215" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A215">
         <v>213</v>
       </c>
@@ -22308,7 +22322,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="216" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A216">
         <v>214</v>
       </c>
@@ -22394,7 +22408,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="217" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A217">
         <v>215</v>
       </c>
@@ -22480,7 +22494,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="218" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A218">
         <v>216</v>
       </c>
@@ -22566,7 +22580,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="219" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A219">
         <v>217</v>
       </c>
@@ -22652,7 +22666,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="220" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A220">
         <v>218</v>
       </c>
@@ -22738,7 +22752,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="221" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A221">
         <v>219</v>
       </c>
@@ -22824,7 +22838,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="222" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A222">
         <v>222</v>
       </c>
@@ -22910,7 +22924,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="223" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A223">
         <v>221</v>
       </c>
@@ -22996,7 +23010,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="224" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A224">
         <v>223</v>
       </c>
@@ -23082,7 +23096,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="225" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A225">
         <v>226</v>
       </c>
@@ -23168,7 +23182,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="226" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A226">
         <v>227</v>
       </c>
@@ -23254,7 +23268,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="227" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A227">
         <v>228</v>
       </c>
@@ -23340,7 +23354,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="228" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="228" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A228">
         <v>229</v>
       </c>
@@ -23426,7 +23440,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="229" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A229">
         <v>224</v>
       </c>
@@ -23512,7 +23526,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="230" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A230">
         <v>225</v>
       </c>
@@ -23598,7 +23612,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="231" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A231">
         <v>230</v>
       </c>
@@ -23684,7 +23698,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="232" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A232">
         <v>234</v>
       </c>
@@ -23770,7 +23784,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="233" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A233">
         <v>244</v>
       </c>
@@ -23856,7 +23870,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="234" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A234">
         <v>245</v>
       </c>
@@ -23942,7 +23956,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="235" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A235">
         <v>246</v>
       </c>
@@ -24028,7 +24042,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="236" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A236">
         <v>235</v>
       </c>
@@ -24114,7 +24128,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="237" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A237">
         <v>247</v>
       </c>
@@ -24200,7 +24214,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="238" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A238">
         <v>248</v>
       </c>
@@ -24286,7 +24300,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="239" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A239">
         <v>236</v>
       </c>
@@ -24372,7 +24386,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="240" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A240">
         <v>237</v>
       </c>
@@ -24458,7 +24472,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="241" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A241">
         <v>249</v>
       </c>
@@ -24544,7 +24558,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="242" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A242">
         <v>238</v>
       </c>
@@ -24630,7 +24644,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="243" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A243">
         <v>250</v>
       </c>
@@ -24716,7 +24730,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="244" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A244">
         <v>251</v>
       </c>
@@ -24802,7 +24816,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="245" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A245">
         <v>239</v>
       </c>
@@ -24888,7 +24902,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="246" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A246">
         <v>240</v>
       </c>
@@ -24974,7 +24988,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="247" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A247">
         <v>252</v>
       </c>
@@ -25060,7 +25074,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="248" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A248">
         <v>231</v>
       </c>
@@ -25146,7 +25160,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="249" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A249">
         <v>253</v>
       </c>
@@ -25232,7 +25246,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="250" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="250" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A250">
         <v>254</v>
       </c>
@@ -25318,7 +25332,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="251" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A251">
         <v>232</v>
       </c>
@@ -25404,7 +25418,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="252" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A252">
         <v>241</v>
       </c>
@@ -25490,7 +25504,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="253" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A253">
         <v>242</v>
       </c>
@@ -25576,7 +25590,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="254" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A254">
         <v>233</v>
       </c>
@@ -25662,7 +25676,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="255" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A255">
         <v>243</v>
       </c>
@@ -25748,7 +25762,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="256" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A256">
         <v>255</v>
       </c>
@@ -25834,7 +25848,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="257" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A257">
         <v>256</v>
       </c>
@@ -25920,7 +25934,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="258" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A258">
         <v>257</v>
       </c>
@@ -26006,7 +26020,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="259" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A259">
         <v>258</v>
       </c>
@@ -26092,7 +26106,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="260" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="260" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A260">
         <v>259</v>
       </c>
@@ -26178,7 +26192,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="261" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A261">
         <v>260</v>
       </c>
@@ -26264,7 +26278,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="262" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="262" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A262">
         <v>261</v>
       </c>
@@ -26350,7 +26364,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="263" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="263" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A263">
         <v>262</v>
       </c>
@@ -26436,7 +26450,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="264" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="264" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A264">
         <v>263</v>
       </c>
@@ -26522,7 +26536,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="265" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A265">
         <v>264</v>
       </c>
@@ -26608,7 +26622,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="266" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="266" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A266">
         <v>265</v>
       </c>
@@ -26694,7 +26708,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="267" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A267">
         <v>266</v>
       </c>
@@ -26780,7 +26794,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="268" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A268">
         <v>267</v>
       </c>
@@ -26866,7 +26880,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="269" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="269" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A269">
         <v>268</v>
       </c>
@@ -26952,7 +26966,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="270" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A270">
         <v>269</v>
       </c>
@@ -27038,7 +27052,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="271" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A271">
         <v>272</v>
       </c>
@@ -27124,7 +27138,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="272" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A272">
         <v>273</v>
       </c>
@@ -27210,7 +27224,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="273" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A273">
         <v>270</v>
       </c>
@@ -27296,7 +27310,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="274" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A274">
         <v>274</v>
       </c>
@@ -27382,7 +27396,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="275" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A275">
         <v>271</v>
       </c>
@@ -27468,7 +27482,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="276" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A276">
         <v>275</v>
       </c>
@@ -27554,7 +27568,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="277" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A277">
         <v>276</v>
       </c>
@@ -27640,7 +27654,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="278" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A278">
         <v>284</v>
       </c>
@@ -27726,7 +27740,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="279" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A279">
         <v>285</v>
       </c>
@@ -27812,7 +27826,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="280" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A280">
         <v>286</v>
       </c>
@@ -27898,7 +27912,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="281" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A281">
         <v>287</v>
       </c>
@@ -27984,7 +27998,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="282" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A282">
         <v>288</v>
       </c>
@@ -28070,7 +28084,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="283" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A283">
         <v>289</v>
       </c>
@@ -28156,7 +28170,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="284" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A284">
         <v>290</v>
       </c>
@@ -28242,7 +28256,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="285" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A285">
         <v>291</v>
       </c>
@@ -28328,7 +28342,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="286" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A286">
         <v>277</v>
       </c>
@@ -28414,7 +28428,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="287" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A287">
         <v>292</v>
       </c>
@@ -28500,7 +28514,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="288" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A288">
         <v>293</v>
       </c>
@@ -28586,7 +28600,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="289" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A289">
         <v>294</v>
       </c>
@@ -28672,7 +28686,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="290" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A290">
         <v>295</v>
       </c>
@@ -28758,7 +28772,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="291" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A291">
         <v>296</v>
       </c>
@@ -28844,7 +28858,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="292" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A292">
         <v>297</v>
       </c>
@@ -28930,7 +28944,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="293" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A293">
         <v>278</v>
       </c>
@@ -29016,7 +29030,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="294" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A294">
         <v>298</v>
       </c>
@@ -29102,7 +29116,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="295" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A295">
         <v>299</v>
       </c>
@@ -29188,7 +29202,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="296" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A296">
         <v>300</v>
       </c>
@@ -29274,7 +29288,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="297" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A297">
         <v>301</v>
       </c>
@@ -29360,7 +29374,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="298" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A298">
         <v>279</v>
       </c>
@@ -29446,7 +29460,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="299" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A299">
         <v>302</v>
       </c>
@@ -29532,7 +29546,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="300" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A300">
         <v>303</v>
       </c>
@@ -29618,7 +29632,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="301" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A301">
         <v>304</v>
       </c>
@@ -29704,7 +29718,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="302" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A302">
         <v>305</v>
       </c>
@@ -29790,7 +29804,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="303" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A303">
         <v>306</v>
       </c>
@@ -29876,7 +29890,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="304" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A304">
         <v>280</v>
       </c>
@@ -29962,7 +29976,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="305" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A305">
         <v>307</v>
       </c>
@@ -30048,7 +30062,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="306" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A306">
         <v>308</v>
       </c>
@@ -30134,7 +30148,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="307" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A307">
         <v>309</v>
       </c>
@@ -30220,7 +30234,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="308" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A308">
         <v>310</v>
       </c>
@@ -30306,7 +30320,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="309" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A309">
         <v>281</v>
       </c>
@@ -30392,7 +30406,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="310" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A310">
         <v>311</v>
       </c>
@@ -30478,7 +30492,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="311" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A311">
         <v>312</v>
       </c>
@@ -30564,7 +30578,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="312" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A312">
         <v>313</v>
       </c>
@@ -30650,7 +30664,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="313" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A313">
         <v>314</v>
       </c>
@@ -30736,7 +30750,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="314" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A314">
         <v>282</v>
       </c>
@@ -30822,7 +30836,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="315" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A315">
         <v>283</v>
       </c>
@@ -30908,7 +30922,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="316" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A316">
         <v>315</v>
       </c>
@@ -30994,7 +31008,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="317" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A317">
         <v>319</v>
       </c>
@@ -31080,7 +31094,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="318" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A318">
         <v>320</v>
       </c>
@@ -31166,7 +31180,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="319" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A319">
         <v>316</v>
       </c>
@@ -31252,7 +31266,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="320" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A320">
         <v>321</v>
       </c>
@@ -31338,7 +31352,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="321" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A321">
         <v>317</v>
       </c>
@@ -31424,7 +31438,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="322" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A322">
         <v>318</v>
       </c>
@@ -31510,7 +31524,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="323" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A323">
         <v>322</v>
       </c>
@@ -31596,7 +31610,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="324" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A324">
         <v>323</v>
       </c>
@@ -31682,7 +31696,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="325" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A325">
         <v>324</v>
       </c>
@@ -31768,7 +31782,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="326" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A326">
         <v>325</v>
       </c>
@@ -31854,7 +31868,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="327" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A327">
         <v>326</v>
       </c>
@@ -31940,7 +31954,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="328" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A328">
         <v>327</v>
       </c>
@@ -32026,7 +32040,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="329" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A329">
         <v>328</v>
       </c>
@@ -32112,7 +32126,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="330" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A330">
         <v>331</v>
       </c>
@@ -32198,7 +32212,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="331" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A331">
         <v>366</v>
       </c>
@@ -32284,7 +32298,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="332" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A332">
         <v>367</v>
       </c>
@@ -32370,7 +32384,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="333" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A333">
         <v>332</v>
       </c>
@@ -32456,7 +32470,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="334" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A334">
         <v>333</v>
       </c>
@@ -32542,7 +32556,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="335" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A335">
         <v>334</v>
       </c>
@@ -32628,7 +32642,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="336" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A336">
         <v>335</v>
       </c>
@@ -32714,7 +32728,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="337" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A337">
         <v>336</v>
       </c>
@@ -32800,7 +32814,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="338" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A338">
         <v>337</v>
       </c>
@@ -32886,7 +32900,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="339" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A339">
         <v>342</v>
       </c>
@@ -32972,7 +32986,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="340" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A340">
         <v>343</v>
       </c>
@@ -33058,7 +33072,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="341" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A341">
         <v>329</v>
       </c>
@@ -33144,7 +33158,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="342" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A342">
         <v>344</v>
       </c>
@@ -33230,7 +33244,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="343" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A343">
         <v>345</v>
       </c>
@@ -33316,7 +33330,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="344" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A344">
         <v>346</v>
       </c>
@@ -33402,7 +33416,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="345" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A345">
         <v>347</v>
       </c>
@@ -33488,7 +33502,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="346" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A346">
         <v>348</v>
       </c>
@@ -33574,7 +33588,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="347" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A347">
         <v>349</v>
       </c>
@@ -33660,7 +33674,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="348" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A348">
         <v>330</v>
       </c>
@@ -33746,7 +33760,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="349" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A349">
         <v>350</v>
       </c>
@@ -33832,7 +33846,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="350" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A350">
         <v>351</v>
       </c>
@@ -33918,7 +33932,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="351" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A351">
         <v>352</v>
       </c>
@@ -34004,7 +34018,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="352" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A352">
         <v>353</v>
       </c>
@@ -34090,7 +34104,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="353" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A353">
         <v>354</v>
       </c>
@@ -34176,7 +34190,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="354" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A354">
         <v>355</v>
       </c>
@@ -34262,7 +34276,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="355" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A355">
         <v>356</v>
       </c>
@@ -34348,7 +34362,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="356" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A356">
         <v>357</v>
       </c>
@@ -34434,7 +34448,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="357" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A357">
         <v>358</v>
       </c>
@@ -34520,7 +34534,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="358" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A358">
         <v>338</v>
       </c>
@@ -34606,7 +34620,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="359" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A359">
         <v>359</v>
       </c>
@@ -34692,7 +34706,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="360" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A360">
         <v>360</v>
       </c>
@@ -34778,7 +34792,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="361" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A361">
         <v>361</v>
       </c>
@@ -34864,7 +34878,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="362" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A362">
         <v>339</v>
       </c>
@@ -34950,7 +34964,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="363" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A363">
         <v>362</v>
       </c>
@@ -35036,7 +35050,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="364" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A364">
         <v>363</v>
       </c>
@@ -35122,7 +35136,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="365" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A365">
         <v>364</v>
       </c>
@@ -35208,7 +35222,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="366" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A366">
         <v>365</v>
       </c>
@@ -35294,7 +35308,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="367" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A367">
         <v>340</v>
       </c>
@@ -35380,7 +35394,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="368" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A368">
         <v>341</v>
       </c>
@@ -35466,7 +35480,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="369" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A369">
         <v>376</v>
       </c>
@@ -35552,7 +35566,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="370" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A370">
         <v>403</v>
       </c>
@@ -35638,7 +35652,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="371" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A371">
         <v>371</v>
       </c>
@@ -35724,7 +35738,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="372" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A372">
         <v>377</v>
       </c>
@@ -35810,7 +35824,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="373" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A373">
         <v>372</v>
       </c>
@@ -35896,7 +35910,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="374" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A374">
         <v>373</v>
       </c>
@@ -35982,7 +35996,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="375" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A375">
         <v>374</v>
       </c>
@@ -36068,7 +36082,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="376" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A376">
         <v>375</v>
       </c>
@@ -36154,7 +36168,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="377" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A377">
         <v>378</v>
       </c>
@@ -36240,7 +36254,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="378" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A378">
         <v>379</v>
       </c>
@@ -36326,7 +36340,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="379" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A379">
         <v>380</v>
       </c>
@@ -36412,7 +36426,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="380" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A380">
         <v>381</v>
       </c>
@@ -36498,7 +36512,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="381" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A381">
         <v>382</v>
       </c>
@@ -36584,7 +36598,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="382" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A382">
         <v>383</v>
       </c>
@@ -36670,7 +36684,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="383" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A383">
         <v>384</v>
       </c>
@@ -36756,7 +36770,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="384" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A384">
         <v>385</v>
       </c>
@@ -36842,7 +36856,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="385" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A385">
         <v>404</v>
       </c>
@@ -36928,7 +36942,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="386" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A386">
         <v>386</v>
       </c>
@@ -37014,7 +37028,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="387" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A387">
         <v>387</v>
       </c>
@@ -37100,7 +37114,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="388" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A388">
         <v>368</v>
       </c>
@@ -37186,7 +37200,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="389" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A389">
         <v>388</v>
       </c>
@@ -37272,7 +37286,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="390" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A390">
         <v>389</v>
       </c>
@@ -37358,7 +37372,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="391" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A391">
         <v>390</v>
       </c>
@@ -37444,7 +37458,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="392" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A392">
         <v>391</v>
       </c>
@@ -37530,7 +37544,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="393" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A393">
         <v>405</v>
       </c>
@@ -37616,7 +37630,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="394" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A394">
         <v>406</v>
       </c>
@@ -37702,7 +37716,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="395" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A395">
         <v>392</v>
       </c>
@@ -37788,7 +37802,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="396" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A396">
         <v>369</v>
       </c>
@@ -37874,7 +37888,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="397" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A397">
         <v>393</v>
       </c>
@@ -37960,7 +37974,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="398" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A398">
         <v>394</v>
       </c>
@@ -38046,7 +38060,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="399" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A399">
         <v>395</v>
       </c>
@@ -38132,7 +38146,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="400" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A400">
         <v>396</v>
       </c>
@@ -38218,7 +38232,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="401" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A401">
         <v>397</v>
       </c>
@@ -38304,7 +38318,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="402" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A402">
         <v>398</v>
       </c>
@@ -38390,7 +38404,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="403" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A403">
         <v>370</v>
       </c>
@@ -38476,7 +38490,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="404" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A404">
         <v>399</v>
       </c>
@@ -38562,7 +38576,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="405" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A405">
         <v>400</v>
       </c>
@@ -38648,7 +38662,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="406" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A406">
         <v>401</v>
       </c>
@@ -38734,7 +38748,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="407" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A407">
         <v>402</v>
       </c>
@@ -38820,7 +38834,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="408" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A408">
         <v>407</v>
       </c>
@@ -38906,7 +38920,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="409" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A409">
         <v>411</v>
       </c>
@@ -38992,7 +39006,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="410" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A410">
         <v>408</v>
       </c>
@@ -39078,7 +39092,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="411" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A411">
         <v>412</v>
       </c>
@@ -39164,7 +39178,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="412" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A412">
         <v>409</v>
       </c>
@@ -39250,7 +39264,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="413" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A413">
         <v>410</v>
       </c>
@@ -39336,7 +39350,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="414" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A414">
         <v>420</v>
       </c>
@@ -39422,7 +39436,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="415" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A415">
         <v>441</v>
       </c>
@@ -39508,7 +39522,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="416" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A416">
         <v>413</v>
       </c>
@@ -39594,7 +39608,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="417" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A417">
         <v>414</v>
       </c>
@@ -39680,7 +39694,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="418" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A418">
         <v>415</v>
       </c>
@@ -39766,7 +39780,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="419" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A419">
         <v>425</v>
       </c>
@@ -39852,7 +39866,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="420" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A420">
         <v>416</v>
       </c>
@@ -39938,7 +39952,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="421" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A421">
         <v>417</v>
       </c>
@@ -40024,7 +40038,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="422" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A422">
         <v>426</v>
       </c>
@@ -40110,7 +40124,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="423" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A423">
         <v>418</v>
       </c>
@@ -40196,7 +40210,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="424" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A424">
         <v>419</v>
       </c>
@@ -40282,7 +40296,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="425" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A425">
         <v>428</v>
       </c>
@@ -40368,7 +40382,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="426" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A426">
         <v>427</v>
       </c>
@@ -40454,7 +40468,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="427" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A427">
         <v>429</v>
       </c>
@@ -40540,7 +40554,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="428" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A428">
         <v>421</v>
       </c>
@@ -40626,7 +40640,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="429" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A429">
         <v>430</v>
       </c>
@@ -40712,7 +40726,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="430" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A430">
         <v>431</v>
       </c>
@@ -40798,7 +40812,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="431" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A431">
         <v>432</v>
       </c>
@@ -40884,7 +40898,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="432" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A432">
         <v>422</v>
       </c>
@@ -40970,7 +40984,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="433" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A433">
         <v>433</v>
       </c>
@@ -41056,7 +41070,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="434" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A434">
         <v>434</v>
       </c>
@@ -41142,7 +41156,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="435" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A435">
         <v>435</v>
       </c>
@@ -41228,7 +41242,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="436" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A436">
         <v>436</v>
       </c>
@@ -41314,7 +41328,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="437" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A437">
         <v>423</v>
       </c>
@@ -41400,7 +41414,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="438" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A438">
         <v>437</v>
       </c>
@@ -41486,7 +41500,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="439" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A439">
         <v>438</v>
       </c>
@@ -41572,7 +41586,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="440" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A440">
         <v>439</v>
       </c>
@@ -41658,7 +41672,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="441" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A441">
         <v>440</v>
       </c>
@@ -41744,7 +41758,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="442" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A442">
         <v>424</v>
       </c>
@@ -41830,7 +41844,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="443" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A443">
         <v>442</v>
       </c>
@@ -41916,7 +41930,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="444" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A444">
         <v>445</v>
       </c>
@@ -42002,7 +42016,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="445" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A445">
         <v>446</v>
       </c>
@@ -42088,7 +42102,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="446" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A446">
         <v>447</v>
       </c>
@@ -42174,7 +42188,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="447" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A447">
         <v>448</v>
       </c>
@@ -42260,7 +42274,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="448" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A448">
         <v>443</v>
       </c>
@@ -42346,7 +42360,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="449" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A449">
         <v>450</v>
       </c>
@@ -42432,7 +42446,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="450" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A450">
         <v>451</v>
       </c>
@@ -42518,7 +42532,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="451" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A451">
         <v>452</v>
       </c>
@@ -42604,7 +42618,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="452" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A452">
         <v>453</v>
       </c>
@@ -42690,7 +42704,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="453" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A453">
         <v>454</v>
       </c>
@@ -42776,7 +42790,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="454" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A454">
         <v>455</v>
       </c>
@@ -42862,7 +42876,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="455" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A455">
         <v>456</v>
       </c>
@@ -42948,7 +42962,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="456" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A456">
         <v>457</v>
       </c>
@@ -43034,7 +43048,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="457" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A457">
         <v>458</v>
       </c>
@@ -43120,7 +43134,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="458" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A458">
         <v>459</v>
       </c>
@@ -43206,7 +43220,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="459" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A459">
         <v>460</v>
       </c>
@@ -43292,7 +43306,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="460" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A460">
         <v>461</v>
       </c>
@@ -43378,7 +43392,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="461" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A461">
         <v>462</v>
       </c>
@@ -43464,7 +43478,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="462" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A462">
         <v>463</v>
       </c>
@@ -43550,7 +43564,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="463" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A463">
         <v>444</v>
       </c>
@@ -43636,7 +43650,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="464" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A464">
         <v>449</v>
       </c>
@@ -43722,7 +43736,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="465" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A465">
         <v>464</v>
       </c>
@@ -43808,7 +43822,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="466" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A466">
         <v>465</v>
       </c>
@@ -43894,7 +43908,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="467" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A467">
         <v>466</v>
       </c>
@@ -43980,7 +43994,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="468" spans="1:28" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:28" hidden="1" x14ac:dyDescent="0.5">
       <c r="A468">
         <v>467</v>
       </c>
@@ -44078,7 +44092,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF226374-6849-45DA-821D-62BB3A671EA6}">
   <dimension ref="A1:G468"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A98" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -55143,8 +55157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{137A950A-D6E2-4986-AEB1-276D149F0C23}">
   <dimension ref="A1:G468"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
